--- a/kilpailijahintoja.xlsx
+++ b/kilpailijahintoja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slambe\Desktop\UNI\ohjelmointi\Python\SOK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3146C-93B7-45C1-AD00-8C0C3A281329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08E8A5-815C-42AD-9C01-2A6348DF22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$J$26</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"49e52ab4-2dac-4e78-a94d-74337646439d"</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentManualCount="12"/>
@@ -533,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3606480504662</v>
+        <v>3606480504679</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -595,13 +595,13 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3606480504679</v>
+        <v>3606481825353</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -609,13 +609,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>3606481825353</v>
+        <v>3606481825377</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3606481825377</v>
+        <v>3606481825384</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -639,11 +639,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="9"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3606481825384</v>
+        <v>3606481825445</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -653,11 +653,11 @@
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>3606481825445</v>
+        <v>3606481825452</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -671,21 +671,21 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>3606481825452</v>
+        <v>6418677309526</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>6418677309526</v>
+        <v>6418677309533</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -699,7 +699,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>6418677309533</v>
+        <v>6418677310003</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -713,7 +713,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>6418677310003</v>
+        <v>6418677310010</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>6418677310010</v>
+        <v>6418677310539</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>6418677310539</v>
+        <v>6418677310560</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>6418677310560</v>
+        <v>6418677310607</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>6418677310607</v>
+        <v>6418677310690</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -783,7 +783,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>6418677310690</v>
+        <v>6418677330599</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -797,7 +797,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>6418677330599</v>
+        <v>6418677333002</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -805,41 +805,41 @@
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>6418677333002</v>
+        <v>6418677333040</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>6418677333040</v>
+        <v>6418677333255</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>6418677333255</v>
+        <v>6418677333262</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -853,7 +853,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>6418677333262</v>
+        <v>6418677333316</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -867,21 +867,21 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>6418677333316</v>
+        <v>6418677334924</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>6418677334924</v>
+        <v>6418677334948</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -889,13 +889,13 @@
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="7"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>6418677334948</v>
+        <v>6438199001944</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -905,26 +905,12 @@
       <c r="G26" s="10"/>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>6438199001944</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J26" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J27" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J27">
-      <sortCondition ref="A3:A27"/>
+  <autoFilter ref="A3:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J26">
+      <sortCondition ref="A3:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kilpailijahintoja.xlsx
+++ b/kilpailijahintoja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slambe\Desktop\UNI\ohjelmointi\Python\SOK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08E8A5-815C-42AD-9C01-2A6348DF22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC645CC3-E17B-4572-B065-C54EA89568AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>EAN</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>Tokmanni linkki</t>
+  </si>
+  <si>
+    <t>IDO</t>
+  </si>
+  <si>
+    <t>Ido Glow Z6700100001 painonappi täydellinen krom</t>
+  </si>
+  <si>
+    <t>Wc-varaosa IDO Z6700100001 2-toiminen painike kromi Glow</t>
+  </si>
+  <si>
+    <t>Gustavsberg Nautic 9GN01161 huuhtelupainike duo kromi matala</t>
+  </si>
+  <si>
+    <t>Gustavsberg</t>
+  </si>
+  <si>
+    <t>Wc-varaosa Gustavsberg Nautic HF painonappi Duo matala kromi</t>
   </si>
 </sst>
 </file>
@@ -108,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +161,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FF90EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,10 +236,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,325 +611,198 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3606480504679</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
+        <v>7391515432435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>21.9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>21.95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3606481825353</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+        <v>4051202546182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>31.9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>41.95</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>3606481825377</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+        <v>6416129362310</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3606481825384</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
+        <v>6416129362556</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3606481825445</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+        <v>6416129362525</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>3606481825452</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+        <v>7391515121926</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>6418677309526</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>7391515117301</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>6418677309533</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>7391515121353</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>6418677310003</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>7391515121346</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>6418677310010</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>6418677333255</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>6418677310539</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>6418677333262</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>6418677310560</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+        <v>6418677333316</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>6418677310607</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+        <v>6418677334924</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>6418677310690</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+        <v>6418677334948</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>6418677330599</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+        <v>6438199001944</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>6418677333002</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>6418677333040</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>6418677333255</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>6418677333262</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>6418677333316</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>6418677334924</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>6418677334948</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>6438199001944</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -913,6 +810,12 @@
       <sortCondition ref="A3:A26"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kilpailijahintoja.xlsx
+++ b/kilpailijahintoja.xlsx
@@ -1,134 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slambe\Desktop\UNI\ohjelmointi\Python\SOK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC645CC3-E17B-4572-B065-C54EA89568AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$J$26</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"49e52ab4-2dac-4e78-a94d-74337646439d"</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet2'!$A$3:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentManualCount="12"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" concurrentManualCount="12"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>EAN</t>
-  </si>
-  <si>
-    <t>Tuotenimi FI</t>
-  </si>
-  <si>
-    <t>Merkki</t>
-  </si>
-  <si>
-    <t>Hinta</t>
-  </si>
-  <si>
-    <t>K-R 29.8.-23</t>
-  </si>
-  <si>
-    <t>K-linkki</t>
-  </si>
-  <si>
-    <t>Puu 29.8.-23</t>
-  </si>
-  <si>
-    <t>Puuilo linkki</t>
-  </si>
-  <si>
-    <t>Tok 29.8.-23</t>
-  </si>
-  <si>
-    <t>Tokmanni linkki</t>
-  </si>
-  <si>
-    <t>IDO</t>
-  </si>
-  <si>
-    <t>Ido Glow Z6700100001 painonappi täydellinen krom</t>
-  </si>
-  <si>
-    <t>Wc-varaosa IDO Z6700100001 2-toiminen painike kromi Glow</t>
-  </si>
-  <si>
-    <t>Gustavsberg Nautic 9GN01161 huuhtelupainike duo kromi matala</t>
-  </si>
-  <si>
-    <t>Gustavsberg</t>
-  </si>
-  <si>
-    <t>Wc-varaosa Gustavsberg Nautic HF painonappi Duo matala kromi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF1F497D"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF1F497D"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF1F497D"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF1F497D"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF0070C0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,8 +105,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,22 +120,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right/>
       <top/>
@@ -204,10 +144,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </right>
       <top/>
       <bottom/>
@@ -217,46 +157,108 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="SAPDimensionCell" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="SAPMemberCell" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="SAPDimensionCell" xfId="2"/>
+    <cellStyle name="SAPMemberCell" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -556,265 +558,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="48.28515625" customWidth="1"/>
+    <col width="18" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="26.33203125" customWidth="1" style="8" min="2" max="2"/>
+    <col width="18.88671875" customWidth="1" style="8" min="3" max="4"/>
+    <col width="14.6640625" customWidth="1" style="8" min="5" max="5"/>
+    <col width="52" customWidth="1" style="8" min="6" max="6"/>
+    <col width="17.5546875" customWidth="1" style="8" min="7" max="7"/>
+    <col width="34.33203125" customWidth="1" style="8" min="8" max="8"/>
+    <col width="16.5546875" customWidth="1" style="8" min="9" max="9"/>
+    <col width="48.33203125" customWidth="1" style="8" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tuotenimi FI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Merkki</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hinta</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>K-R 29.8.-23</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>K-linkki</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Puu 29.8.-23</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Puuilo linkki</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Tok 29.8.-23</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Tokmanni linkki</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>7391515432435</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ido Glow Z6700100001 painonappi täydellinen krom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>21.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>21.95</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6700100001 2-toiminen painike kromi Glow</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>4051202546182</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gustavsberg Nautic 9GN01161 huuhtelupainike duo kromi matala</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gustavsberg</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>31.9</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>41.95</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa Gustavsberg Nautic HF painonappi Duo matala kromi</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>6416129362310</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ido Trevi 64442 painike kaksoishuuhtelu krom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNDEFINED</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6444200001 2-t painike K</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>6416129362556</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="E7" s="6" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6400100001 liitin 10mm</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="n"/>
+      <c r="J7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>6416129362525</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="E8" s="6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6200400001 säiliön ruuvit Seven D</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>7391515121926</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IDO sulkumäntä Trevi, Mosaik, lasten-wc 3220 -malleihin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96481 sulkumäntä</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>7391515117301</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IDO tyhjennysventtiilin tiiviste Trevi, Mosaik, lasten-wc 3220 -malleihin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96308 venttiilirengas</t>
+        </is>
+      </c>
+      <c r="J10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>7391515121353</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ido tyhjennysventtiilin tiivis. glow seven d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96765 tasotiiviste Seven D</t>
+        </is>
+      </c>
+      <c r="J11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>7391515121346</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Täyttöventtiili IDO Seven D, Glow ja lasten-wc 6820 -istuimille sekä IDO Seven D ja ICM -seinä-wc-elementeille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96766 täyttöventtiili</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="n"/>
+      <c r="J12" s="9" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>6418677333255</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1721F85-84P 1-osainen impressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1721F85-84P 1-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-os. impressivo</t>
+        </is>
+      </c>
+      <c r="J13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>6418677333262</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 2-osainen inpressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1722F85-84P 2-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ABB 2-Os peitelevy impressivo</t>
+        </is>
+      </c>
+      <c r="J14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>6418677333316</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-osainen impressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1721F100-84P 1-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-Os 100Mm</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>6418677334924</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ABB Jussi uppopistorasia 302EUJP 2-osainen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Uppopistorasia ABB Jussi 302EUJP 2-osainen peitelevyllä</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ABB uppopistorasia 2-Os. peitelevyllä</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Pistorasia ABB Jussi 2-osainen uppo + kehys 302EUJP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
         <v>6418677334948</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ABB kytkin jussi 1+1+1 10631u</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Kytkin ABB Jussi 10631UP 1+1+1</t>
+        </is>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jussi kytkin 1+1+1 uppoasennus</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Kytkin ABB Jussi 1+1+1 10631UP</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>6438199001944</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="9"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ABB pintakehys jussi 85mm 2512hp</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Pintakehys ABB Jussi 2512HP 85mm</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="n"/>
+      <c r="I18" s="11" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Pintakehys ABB Jussi kulmapistorasia, 85 mm 2512HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" s="9" t="n"/>
+      <c r="J19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="J20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="9" t="n"/>
+      <c r="J21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="H22" s="9" t="n"/>
+      <c r="J22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="H23" s="9" t="n"/>
+      <c r="J23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="H25" s="9" t="n"/>
+      <c r="J25" s="9" t="n"/>
+    </row>
+    <row r="26">
+      <c r="H26" s="9" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J26">
+  <autoFilter ref="A3:J26">
+    <sortState ref="A4:J26">
       <sortCondition ref="A3:A26"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="F11" r:id="rId14"/>
+    <hyperlink ref="B12" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="B13" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="H13" r:id="rId19"/>
+    <hyperlink ref="B14" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="H14" r:id="rId22"/>
+    <hyperlink ref="B15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24"/>
+    <hyperlink ref="H15" r:id="rId25"/>
+    <hyperlink ref="B16" r:id="rId26"/>
+    <hyperlink ref="F16" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId28"/>
+    <hyperlink ref="J16" r:id="rId29"/>
+    <hyperlink ref="B17" r:id="rId30"/>
+    <hyperlink ref="F17" r:id="rId31"/>
+    <hyperlink ref="H17" r:id="rId32"/>
+    <hyperlink ref="J17" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="F18" r:id="rId35"/>
+    <hyperlink ref="J18" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kilpailijahintoja.xlsx
+++ b/kilpailijahintoja.xlsx
@@ -1,134 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slambe\Desktop\UNI\ohjelmointi\Python\SOK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC645CC3-E17B-4572-B065-C54EA89568AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$J$26</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"49e52ab4-2dac-4e78-a94d-74337646439d"</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet2'!$A$3:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentManualCount="12"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" concurrentManualCount="12"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>EAN</t>
-  </si>
-  <si>
-    <t>Tuotenimi FI</t>
-  </si>
-  <si>
-    <t>Merkki</t>
-  </si>
-  <si>
-    <t>Hinta</t>
-  </si>
-  <si>
-    <t>K-R 29.8.-23</t>
-  </si>
-  <si>
-    <t>K-linkki</t>
-  </si>
-  <si>
-    <t>Puu 29.8.-23</t>
-  </si>
-  <si>
-    <t>Puuilo linkki</t>
-  </si>
-  <si>
-    <t>Tok 29.8.-23</t>
-  </si>
-  <si>
-    <t>Tokmanni linkki</t>
-  </si>
-  <si>
-    <t>IDO</t>
-  </si>
-  <si>
-    <t>Ido Glow Z6700100001 painonappi täydellinen krom</t>
-  </si>
-  <si>
-    <t>Wc-varaosa IDO Z6700100001 2-toiminen painike kromi Glow</t>
-  </si>
-  <si>
-    <t>Gustavsberg Nautic 9GN01161 huuhtelupainike duo kromi matala</t>
-  </si>
-  <si>
-    <t>Gustavsberg</t>
-  </si>
-  <si>
-    <t>Wc-varaosa Gustavsberg Nautic HF painonappi Duo matala kromi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF1F497D"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF1F497D"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF1F497D"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF1F497D"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF0070C0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,8 +105,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,22 +120,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right/>
       <top/>
@@ -204,10 +144,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="3" tint="-0.249946592608417"/>
       </right>
       <top/>
       <bottom/>
@@ -217,46 +157,107 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="SAPDimensionCell" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="SAPMemberCell" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="SAPDimensionCell" xfId="2"/>
+    <cellStyle name="SAPMemberCell" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -556,266 +557,665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="48.28515625" customWidth="1"/>
+    <col width="18" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="26.28515625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="18.85546875" customWidth="1" style="7" min="3" max="4"/>
+    <col width="14.7109375" customWidth="1" style="7" min="5" max="5"/>
+    <col width="52" customWidth="1" style="7" min="6" max="6"/>
+    <col width="17.5703125" customWidth="1" style="7" min="7" max="7"/>
+    <col width="34.28515625" customWidth="1" style="7" min="8" max="8"/>
+    <col width="16.5703125" customWidth="1" style="7" min="9" max="9"/>
+    <col width="48.28515625" customWidth="1" style="7" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tuotenimi FI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Merkki</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hinta</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>K-R 29.8.-23</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>K-linkki</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Puu 29.8.-23</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Puuilo linkki</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Tok 29.8.-23</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Tokmanni linkki</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>7391515432435</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ido Glow Z6700100001 painonappi täydellinen krom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21,90</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6700100001 2-toiminen painike kromi Glow</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>4051202546182</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gustavsberg Nautic 9GN01161 huuhtelupainike duo kromi matala</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gustavsberg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41,90</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa Gustavsberg Nautic HF painonappi Duo matala kromi</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>6416129362310</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ido Trevi 64442 painike kaksoishuuhtelu krom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22,50</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6444200001 2-t painike K</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>6416129362556</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6400100001 liitin 10mm</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>6416129362525</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z6200400001 säiliön ruuvit Seven D</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>7391515121926</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IDO sulkumäntä Trevi, Mosaik, lasten-wc 3220 -malleihin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8,50</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96481 sulkumäntä</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>7391515117301</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IDO tyhjennysventtiilin tiiviste Trevi, Mosaik, lasten-wc 3220 -malleihin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96308 venttiilirengas</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>7391515121353</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ido tyhjennysventtiilin tiivis. glow seven d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9,50</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96765 tasotiiviste Seven D</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>7391515121346</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Täyttöventtiili IDO Seven D, Glow ja lasten-wc 6820 -istuimille sekä IDO Seven D ja ICM -seinä-wc-elementeille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IDO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14,95</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Wc-varaosa IDO Z96766 täyttöventtiili</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="n"/>
+      <c r="J12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>6418677333255</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1721F85-84P 1-osainen impressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,60</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1721F85-84P 1-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-os. impressivo</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>6418677333262</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 2-osainen inpressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5,60</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1722F85-84P 2-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ABB 2-Os peitelevy impressivo</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>6418677333316</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-osainen impressivo valkoinen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Peitelevy ABB Impressivo 1721F100-84P 1-osainen valkoinen</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ABB peitelevy 1-Os 100Mm</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>6418677334924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ABB Jussi uppopistorasia 302EUJP 2-osainen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19,95</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Uppopistorasia ABB Jussi 302EUJP 2-osainen peitelevyllä</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ABB uppopistorasia 2-Os. peitelevyllä</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Pistorasia ABB Jussi 2-osainen uppo + kehys 302EUJP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>6418677334948</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ABB kytkin jussi 1+1+1 10631u</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28,80</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>Kytkin ABB Jussi 10631UP 1+1+1</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="n">
         <v>21.9</v>
       </c>
-      <c r="E4" s="6">
-        <v>21.95</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4051202546182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>31.9</v>
-      </c>
-      <c r="E5" s="6">
-        <v>41.95</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>6416129362310</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6416129362556</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6416129362525</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7391515121926</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7391515117301</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7391515121353</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7391515121346</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>6418677333255</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>6418677333262</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>6418677333316</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>6418677334924</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>6418677334948</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jussi kytkin 1+1+1 uppoasennus</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>Kytkin ABB Jussi 1+1+1 10631UP</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>6438199001944</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="9"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ABB pintakehys jussi 85mm 2512hp</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11,95</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>Pintakehys ABB Jussi 2512HP 85mm</t>
+        </is>
+      </c>
+      <c r="G18" s="9" t="n"/>
+      <c r="I18" s="11" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Pintakehys ABB Jussi kulmapistorasia, 85 mm 2512HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>6414672011600</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Pisla taulukoukku MAXI 3kpl valkoinen</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t>Taulukoukku maxi, 3 kpl</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>6414672050944</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Pisla huopatassu Ø 22mm 8kpl vaalea tarrakiinnitys</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Huopatassu Ø 22 mm, vaalea</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" s="8" t="n"/>
+      <c r="I21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="8" t="n"/>
+      <c r="I22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="8" t="n"/>
+      <c r="I23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="I24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="8" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J26">
+  <autoFilter ref="A3:J26">
+    <sortState ref="A4:J26">
       <sortCondition ref="A3:A26"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="F11" r:id="rId14"/>
+    <hyperlink ref="B12" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="B13" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="H13" r:id="rId19"/>
+    <hyperlink ref="B14" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="H14" r:id="rId22"/>
+    <hyperlink ref="B15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24"/>
+    <hyperlink ref="H15" r:id="rId25"/>
+    <hyperlink ref="B16" r:id="rId26"/>
+    <hyperlink ref="F16" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId28"/>
+    <hyperlink ref="J16" r:id="rId29"/>
+    <hyperlink ref="B17" r:id="rId30"/>
+    <hyperlink ref="F17" r:id="rId31"/>
+    <hyperlink ref="H17" r:id="rId32"/>
+    <hyperlink ref="J17" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="F18" r:id="rId35"/>
+    <hyperlink ref="J18" r:id="rId36"/>
+    <hyperlink ref="H19" r:id="rId37"/>
+    <hyperlink ref="J19" r:id="rId38"/>
+    <hyperlink ref="H20" r:id="rId39"/>
+    <hyperlink ref="J20" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>